--- a/grant/権限調査.xlsx
+++ b/grant/権限調査.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BCA066-CD81-4ACF-9DA0-359E210EAF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD80F1-08B1-45C3-BEC2-30CB68A0F705}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メンバ資格" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="251">
   <si>
     <t>1)DB作成</t>
     <rPh sb="4" eb="6">
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve"> postgres     | スーパユーザ, ロール作成可, DB作成可, レプリケーション可, RLS のバイパス | {}</t>
-  </si>
-  <si>
-    <t>psql -U postgres -p5432 -d postgres -c "CREATE ROLE general_user PASSWORD 'g';"</t>
   </si>
   <si>
     <t>psql -U general_user -p5432 -d postgres -c "SELECT 1;"</t>
@@ -914,6 +911,329 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>psql -U postgres -p5432 -d postgres -c "CREATE ROLE general_user PASSWORD 'g';"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d postgres -c "CREATE ROLE general_user LOGIN PASSWORD 'g';"</t>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "select * from drink_tbl;"</t>
+  </si>
+  <si>
+    <t>3)スーパーユーザーでテーブル作成</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4)一般ユーザーでselect</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "GRANT SELECT ON drink_tbl TO general_user;"</t>
+  </si>
+  <si>
+    <t>5)一般ユーザーにselect権限を付与し、select</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "select * from drink_tbl;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6)INSERTも同様に確認</t>
+    <rPh sb="9" eb="11">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INSERT 0 1</t>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "insert into drink_tbl values ('tea',200);"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "GRANT INSERT ON drink_tbl TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UPDATE 1</t>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "update drink_tbl set name='orange juice';"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "GRANT UPDATE ON drink_tbl TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7)UPDATEも同様に確認</t>
+    <rPh sb="9" eb="11">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "delete from drink_tbl;"</t>
+  </si>
+  <si>
+    <t>DELETE 1</t>
+  </si>
+  <si>
+    <t>8)DELETEも同様に確認</t>
+    <rPh sb="9" eb="11">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "GRANT DELETE ON drink_tbl TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "delete from drink_tbl;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "truncate drink_tbl;"</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE</t>
+  </si>
+  <si>
+    <t>9)TRUNCATEも同様に確認</t>
+    <rPh sb="11" eb="13">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "GRANT TRUNCATE ON drink_tbl TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "truncate drink_tbl;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "CREATE TABLE IF NOT EXISTS  drink_tbl (name text NOT NULL  primary key, size integer);"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "GRANT REFERENCES ON drink_tbl TO general_user;"</t>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "CREATE TABLE IF NOT EXISTS gen_tbl (name text NOT NULL, foreign key (name) references drink_tbl(name));"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "CREATE TRIGGER trigger_add_abc BEFORE INSERT ON drink_tbl FOR EACH ROW EXECUTE PROCEDURE add_abc();"</t>
+  </si>
+  <si>
+    <t>ERROR:  関数add_abc()は存在しません</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "GRANT TRIGGER ON drink_tbl TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "CREATE TRIGGER trigger_add_abc BEFORE INSERT ON drink_tbl FOR EACH ROW EXECUTE PROCEDURE add_abc();"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10)REFERENCESも同様に確認</t>
+    <rPh sb="14" eb="16">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ERROR:  データベース testdb へのアクセスが拒否されました</t>
+  </si>
+  <si>
+    <t>CREATE SCHEMA</t>
+  </si>
+  <si>
+    <t>11)TRIGGERも同様に確認</t>
+    <rPh sb="11" eb="13">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12)CREATEも同様に確認</t>
+    <rPh sb="10" eb="12">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "CREATE SCHEMA test;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "GRANT CREATE ON DATABASE testdb TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>REVOKE</t>
+  </si>
+  <si>
+    <t>psql: エラー: FATAL:  データベース"testdb"へのアクセスが拒否されました</t>
+  </si>
+  <si>
+    <t>DETAIL:  ユーザはCONNECT権限を持ちません。</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d postgres -c "REVOKE CONNECT ON DATABASE testdb FROM PUBLIC; "</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>13)CONNECTも同様に確認。暗黙的に全てのロールはPUBLICグループに属するので最初にREVOKEしています。</t>
+    <rPh sb="11" eb="13">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>アンモクテキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "select 1;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "GRANT CONNECT ON DATABASE testdb TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">return arg1; </t>
+  </si>
+  <si>
+    <t>AS $$</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>END;</t>
+  </si>
+  <si>
+    <t>$$</t>
+  </si>
+  <si>
+    <t>LANGUAGE plpgsql ;</t>
+  </si>
+  <si>
+    <t>14)EXECIUTEも同様に確認。最初に何もしないプロシージャを作成。</t>
+    <rPh sb="12" eb="14">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE proc()</t>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -c "CALL proc()"</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>ERROR:  プロシージャ proc へのアクセスが拒否されました</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "REVOKE EXECUTE ON PROCEDURE proc() FROM public; "</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p 5432 -d testdb -c "CALL proc()"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "REVOKE USAGE ON LANGUAGE plpgsql from public; "</t>
+  </si>
+  <si>
+    <t>psql:C:/Users/user/Desktop/postgresql_expriments/grant/procedure.sql :7: ERROR:  言語 plpgsql へのアクセスが拒否されました</t>
+  </si>
+  <si>
+    <t>C:\Users\user&gt;psql -U general_user -p5432 -d testdb -f "procedure.sql "</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15)USAGEも同様に確認。</t>
+    <rPh sb="9" eb="11">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1446,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F26F7EB-7B22-4BC6-9C6E-17EEF59BEDFB}">
   <dimension ref="B1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1469,7 +1789,7 @@
   <sheetData>
     <row r="1" spans="2:4" s="1" customFormat="1" ht="28.5">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -1489,7 +1809,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1497,7 +1817,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1">
@@ -1505,63 +1825,63 @@
     </row>
     <row r="9" spans="2:4" ht="19.5" thickTop="1">
       <c r="C9" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="C10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="C11" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="C13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="C15" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -1576,23 +1896,23 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="3" customFormat="1">
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="5" customFormat="1"/>
     <row r="25" spans="2:2" s="5" customFormat="1">
       <c r="B25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="3" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="3" customFormat="1">
@@ -1622,37 +1942,37 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:2" s="3" customFormat="1">
       <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:2" s="3" customFormat="1">
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:2" s="3" customFormat="1">
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:2" s="3" customFormat="1">
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:2" s="3" customFormat="1">
       <c r="B40" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="2:2" s="3" customFormat="1">
@@ -1672,7 +1992,7 @@
     </row>
     <row r="44" spans="2:2" s="3" customFormat="1">
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="3" customFormat="1">
@@ -1682,27 +2002,27 @@
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:2" s="3" customFormat="1">
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:2" s="3" customFormat="1">
       <c r="B49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:2" s="3" customFormat="1">
       <c r="B50" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="2:2" s="3" customFormat="1">
       <c r="B51" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:2" s="3" customFormat="1">
@@ -1712,32 +2032,32 @@
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:2" s="3" customFormat="1">
       <c r="B55" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:2" s="3" customFormat="1">
       <c r="B56" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="2:2" s="3" customFormat="1">
       <c r="B57" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="2:2" s="3" customFormat="1">
       <c r="B60" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="2:2" s="3" customFormat="1">
@@ -1762,7 +2082,7 @@
     </row>
     <row r="65" spans="2:2" s="3" customFormat="1">
       <c r="B65" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="2:2" s="3" customFormat="1">
@@ -1772,57 +2092,57 @@
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="2:2" s="3" customFormat="1">
       <c r="B69" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="2:2" s="3" customFormat="1">
       <c r="B70" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="2:2" s="3" customFormat="1">
       <c r="B71" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="2:2" s="3" customFormat="1">
       <c r="B74" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="2:2" s="3" customFormat="1">
       <c r="B75" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="2:2" s="3" customFormat="1">
       <c r="B76" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="2:2" s="3" customFormat="1">
       <c r="B79" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="2:2" s="3" customFormat="1">
       <c r="B80" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="2:2" s="3" customFormat="1">
@@ -1842,7 +2162,7 @@
     </row>
     <row r="84" spans="2:2" s="3" customFormat="1">
       <c r="B84" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="2:2" s="3" customFormat="1">
@@ -1852,77 +2172,77 @@
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="2:2" s="3" customFormat="1">
       <c r="B88" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="2:2" s="3" customFormat="1">
       <c r="B89" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="2:2" s="3" customFormat="1">
       <c r="B90" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="2:2" s="3" customFormat="1">
       <c r="B93" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="2:2" s="3" customFormat="1">
       <c r="B94" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="2:2" s="3" customFormat="1">
       <c r="B95" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="2:2" s="3" customFormat="1">
       <c r="B98" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="2:2" s="3" customFormat="1">
       <c r="B99" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="2:2" s="3" customFormat="1">
       <c r="B102" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="2:2" s="3" customFormat="1">
       <c r="B103" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="2:2" s="3" customFormat="1">
       <c r="B104" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="2:2" s="3" customFormat="1">
@@ -1947,7 +2267,7 @@
     </row>
     <row r="109" spans="2:2" s="3" customFormat="1">
       <c r="B109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="2:2" s="3" customFormat="1">
@@ -1957,272 +2277,272 @@
     </row>
     <row r="111" spans="2:2" s="3" customFormat="1">
       <c r="B111" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="2:2" s="3" customFormat="1">
       <c r="B114" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="2:2" s="3" customFormat="1">
       <c r="B115" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="2:2" s="3" customFormat="1">
       <c r="B116" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="2:2" s="3" customFormat="1">
       <c r="B119" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="2:2" s="3" customFormat="1">
       <c r="B120" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="2:2" s="3" customFormat="1">
       <c r="B121" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="2:2" s="3" customFormat="1">
       <c r="B124" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="2:2" s="3" customFormat="1">
       <c r="B127" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="2:2" s="3" customFormat="1">
       <c r="B128" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="2:2" s="3" customFormat="1">
       <c r="B129" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="2:2" s="3" customFormat="1">
       <c r="B132" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="2:2" s="3" customFormat="1">
       <c r="B133" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="2:2" s="3" customFormat="1">
       <c r="B134" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="2:2" s="3" customFormat="1">
       <c r="B137" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="2:2" s="3" customFormat="1">
       <c r="B138" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="2:2" s="3" customFormat="1">
       <c r="B139" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="2:2" s="3" customFormat="1">
       <c r="B140" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="2:2" s="3" customFormat="1">
       <c r="B141" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="2:2" s="3" customFormat="1">
       <c r="B144" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="2:2" s="3" customFormat="1">
       <c r="B145" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="2:2" s="3" customFormat="1">
       <c r="B146" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="2:2" s="3" customFormat="1">
       <c r="B149" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="2:2" s="3" customFormat="1">
       <c r="B150" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="151" spans="2:2" s="3" customFormat="1">
       <c r="B151" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="2:2" s="3" customFormat="1">
       <c r="B154" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="2:2" s="3" customFormat="1">
       <c r="B155" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" spans="2:2" s="3" customFormat="1">
       <c r="B156" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="2:2" s="3" customFormat="1">
       <c r="B160" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="2:2" s="3" customFormat="1">
       <c r="B161" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="162" spans="2:2" s="3" customFormat="1">
       <c r="B162" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="2:2" s="3" customFormat="1">
       <c r="B165" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="2:2" s="3" customFormat="1">
       <c r="B166" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="2:2" s="3" customFormat="1">
       <c r="B169" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="2:2" s="3" customFormat="1">
       <c r="B172" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="2:2" s="3" customFormat="1">
       <c r="B173" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174" spans="2:2" s="3" customFormat="1">
       <c r="B174" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="2:2" s="3" customFormat="1">
       <c r="B175" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="2:2" s="3" customFormat="1">
       <c r="B176" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179" spans="2:2" s="3" customFormat="1">
       <c r="B179" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="2:2" s="3" customFormat="1">
@@ -2232,22 +2552,22 @@
     </row>
     <row r="181" spans="2:2" s="3" customFormat="1">
       <c r="B181" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="2:2" s="3" customFormat="1">
       <c r="B182" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="2:2" s="3" customFormat="1">
       <c r="B183" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="2:2" s="3" customFormat="1">
       <c r="B184" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="2:2" s="3" customFormat="1">
@@ -2257,47 +2577,47 @@
     </row>
     <row r="186" spans="2:2" s="3" customFormat="1">
       <c r="B186" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="2:2" s="3" customFormat="1">
       <c r="B189" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="190" spans="2:2" s="3" customFormat="1">
       <c r="B190" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="191" spans="2:2" s="3" customFormat="1">
       <c r="B191" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="192" spans="2:2" s="3" customFormat="1">
       <c r="B192" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="193" spans="2:2" s="3" customFormat="1">
       <c r="B193" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="194" spans="2:2" s="3" customFormat="1">
       <c r="B194" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="2:2" s="3" customFormat="1">
       <c r="B195" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2309,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4B4DE-8A54-46C5-B73B-38ADF47147E7}">
-  <dimension ref="A1:XFD20"/>
+  <dimension ref="A1:XFD159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K157" sqref="K157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2334,7 +2654,7 @@
   <sheetData>
     <row r="1" spans="1:16384" s="1" customFormat="1" ht="28.5">
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:16384">
@@ -2355,7 +2675,7 @@
     <row r="5" spans="1:16384">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -35354,7 +35674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="19.5" thickBot="1">
+    <row r="17" spans="2:10" ht="19.5" thickBot="1">
       <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
@@ -35377,7 +35697,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="19.5" thickBot="1">
+    <row r="18" spans="2:10" ht="19.5" thickBot="1">
       <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
@@ -35400,7 +35720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="60.75" thickBot="1">
+    <row r="19" spans="2:10" ht="60.75" thickBot="1">
       <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
@@ -35423,7 +35743,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="19.5" thickBot="1">
+    <row r="20" spans="2:10" ht="19.5" thickBot="1">
       <c r="G20" s="11" t="s">
         <v>58</v>
       </c>
@@ -35435,6 +35755,595 @@
       </c>
       <c r="J20" s="11" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="3" customFormat="1">
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" s="3" customFormat="1">
+      <c r="B28" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="5" customFormat="1"/>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="3" customFormat="1">
+      <c r="B31" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" s="3" customFormat="1">
+      <c r="B32" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" s="3" customFormat="1">
+      <c r="B35" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" s="3" customFormat="1">
+      <c r="B36" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" s="3" customFormat="1">
+      <c r="B37" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" s="3" customFormat="1">
+      <c r="B40" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" s="3" customFormat="1">
+      <c r="B41" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" s="3" customFormat="1">
+      <c r="B42" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" s="3" customFormat="1">
+      <c r="B43" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" s="3" customFormat="1">
+      <c r="B44" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" s="3" customFormat="1">
+      <c r="B45" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" s="3" customFormat="1">
+      <c r="B48" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" s="3" customFormat="1">
+      <c r="B49" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" s="3" customFormat="1">
+      <c r="B50" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" s="3" customFormat="1">
+      <c r="B51" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" s="3" customFormat="1">
+      <c r="B52" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" s="3" customFormat="1">
+      <c r="B53" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" s="3" customFormat="1">
+      <c r="B54" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" s="3" customFormat="1">
+      <c r="B55" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" s="3" customFormat="1">
+      <c r="B58" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" s="3" customFormat="1">
+      <c r="B59" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" s="3" customFormat="1">
+      <c r="B60" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" s="3" customFormat="1">
+      <c r="B61" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" s="3" customFormat="1">
+      <c r="B62" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" s="3" customFormat="1">
+      <c r="B63" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" s="3" customFormat="1">
+      <c r="B64" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" s="3" customFormat="1">
+      <c r="B65" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" s="3" customFormat="1">
+      <c r="B68" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" s="3" customFormat="1">
+      <c r="B69" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" s="3" customFormat="1">
+      <c r="B70" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" s="3" customFormat="1">
+      <c r="B71" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" s="3" customFormat="1">
+      <c r="B72" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" s="3" customFormat="1">
+      <c r="B73" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" s="3" customFormat="1">
+      <c r="B74" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" s="3" customFormat="1">
+      <c r="B75" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" s="3" customFormat="1">
+      <c r="B78" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" s="3" customFormat="1">
+      <c r="B79" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" s="3" customFormat="1">
+      <c r="B80" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" s="3" customFormat="1"/>
+    <row r="82" spans="2:2" s="3" customFormat="1">
+      <c r="B82" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" s="3" customFormat="1">
+      <c r="B83" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" s="3" customFormat="1"/>
+    <row r="85" spans="2:2" s="3" customFormat="1">
+      <c r="B85" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" s="3" customFormat="1">
+      <c r="B86" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" s="3" customFormat="1">
+      <c r="B87" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" s="3" customFormat="1">
+      <c r="B90" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" s="3" customFormat="1">
+      <c r="B91" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" s="3" customFormat="1">
+      <c r="B92" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" s="3" customFormat="1">
+      <c r="B93" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" s="3" customFormat="1">
+      <c r="B94" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" s="3" customFormat="1">
+      <c r="B95" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" s="3" customFormat="1">
+      <c r="B96" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" s="3" customFormat="1">
+      <c r="B97" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" s="3" customFormat="1">
+      <c r="B100" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" s="3" customFormat="1">
+      <c r="B101" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" s="3" customFormat="1">
+      <c r="B102" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" s="3" customFormat="1">
+      <c r="B103" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" s="3" customFormat="1">
+      <c r="B104" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" s="3" customFormat="1"/>
+    <row r="106" spans="2:2" s="3" customFormat="1">
+      <c r="B106" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" s="3" customFormat="1">
+      <c r="B107" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" s="3" customFormat="1">
+      <c r="B108" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" s="3" customFormat="1">
+      <c r="B111" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" s="3" customFormat="1">
+      <c r="B112" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" s="3" customFormat="1">
+      <c r="B113" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" s="3" customFormat="1">
+      <c r="B114" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" s="3" customFormat="1">
+      <c r="B115" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" s="3" customFormat="1">
+      <c r="B116" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" s="3" customFormat="1">
+      <c r="B117" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" s="3" customFormat="1">
+      <c r="B118" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" s="3" customFormat="1">
+      <c r="B121" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" s="3" customFormat="1">
+      <c r="B122" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" s="3" customFormat="1">
+      <c r="B123" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" s="3" customFormat="1">
+      <c r="B124" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" s="3" customFormat="1">
+      <c r="B125" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" s="3" customFormat="1">
+      <c r="B126" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" s="3" customFormat="1">
+      <c r="B127" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" s="3" customFormat="1">
+      <c r="B128" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" s="3" customFormat="1">
+      <c r="B129" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" s="3" customFormat="1">
+      <c r="B130" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" s="3" customFormat="1">
+      <c r="B131" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" s="3" customFormat="1">
+      <c r="B132" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" s="3" customFormat="1">
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" s="3" customFormat="1">
+      <c r="B136" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" s="3" customFormat="1">
+      <c r="B137" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" s="3" customFormat="1">
+      <c r="B138" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" s="3" customFormat="1"/>
+    <row r="140" spans="2:3" s="3" customFormat="1">
+      <c r="B140" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" s="3" customFormat="1">
+      <c r="B141" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" s="3" customFormat="1">
+      <c r="B142" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" s="3" customFormat="1">
+      <c r="B144" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" s="3" customFormat="1">
+      <c r="B145" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" s="3" customFormat="1">
+      <c r="B146" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" s="3" customFormat="1">
+      <c r="B147" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" s="3" customFormat="1">
+      <c r="B148" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" s="3" customFormat="1">
+      <c r="B149" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" s="3" customFormat="1">
+      <c r="B150" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" s="3" customFormat="1">
+      <c r="B151" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" s="3" customFormat="1">
+      <c r="B154" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" s="3" customFormat="1">
+      <c r="B155" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" s="3" customFormat="1"/>
+    <row r="157" spans="2:2" s="3" customFormat="1">
+      <c r="B157" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" s="3" customFormat="1">
+      <c r="B158" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" s="3" customFormat="1">
+      <c r="B159" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/grant/権限調査.xlsx
+++ b/grant/権限調査.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD80F1-08B1-45C3-BEC2-30CB68A0F705}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3BE78C-EB4E-4E0E-89DF-D51DD41F8828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メンバ資格" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="252">
   <si>
     <t>1)DB作成</t>
     <rPh sb="4" eb="6">
@@ -936,9 +936,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>psql -U postgres -p5432 -d testdb -c "GRANT SELECT ON drink_tbl TO general_user;"</t>
-  </si>
-  <si>
     <t>5)一般ユーザーにselect権限を付与し、select</t>
     <rPh sb="2" eb="4">
       <t>イッパン</t>
@@ -1232,6 +1229,32 @@
     <rPh sb="12" eb="14">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここではロール内のデータベースオブジェクトに対する権限の動作確認を行います。</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "GRANT SELECT ON drink_tbl TO general_user;"</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1766,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F26F7EB-7B22-4BC6-9C6E-17EEF59BEDFB}">
   <dimension ref="B1:D195"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2631,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4B4DE-8A54-46C5-B73B-38ADF47147E7}">
   <dimension ref="A1:XFD159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2675,7 +2698,7 @@
     <row r="5" spans="1:16384">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -35785,7 +35808,7 @@
     </row>
     <row r="31" spans="2:10" s="3" customFormat="1">
       <c r="B31" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="2:10" s="3" customFormat="1">
@@ -35815,17 +35838,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="2:2" s="3" customFormat="1">
       <c r="B40" s="3" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="2:2" s="3" customFormat="1">
       <c r="B41" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="3" customFormat="1">
@@ -35850,12 +35873,12 @@
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="2:2" s="3" customFormat="1">
       <c r="B48" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:2" s="3" customFormat="1">
@@ -35870,7 +35893,7 @@
     </row>
     <row r="51" spans="2:2" s="3" customFormat="1">
       <c r="B51" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="2:2" s="3" customFormat="1">
@@ -35880,7 +35903,7 @@
     </row>
     <row r="53" spans="2:2" s="3" customFormat="1">
       <c r="B53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="2:2" s="3" customFormat="1">
@@ -35890,17 +35913,17 @@
     </row>
     <row r="55" spans="2:2" s="3" customFormat="1">
       <c r="B55" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="2:2" s="3" customFormat="1">
       <c r="B58" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="2:2" s="3" customFormat="1">
@@ -35915,7 +35938,7 @@
     </row>
     <row r="61" spans="2:2" s="3" customFormat="1">
       <c r="B61" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="2:2" s="3" customFormat="1">
@@ -35925,7 +35948,7 @@
     </row>
     <row r="63" spans="2:2" s="3" customFormat="1">
       <c r="B63" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="2:2" s="3" customFormat="1">
@@ -35935,17 +35958,17 @@
     </row>
     <row r="65" spans="2:2" s="3" customFormat="1">
       <c r="B65" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="2:2" s="3" customFormat="1">
       <c r="B68" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="2:2" s="3" customFormat="1">
@@ -35960,7 +35983,7 @@
     </row>
     <row r="71" spans="2:2" s="3" customFormat="1">
       <c r="B71" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="2:2" s="3" customFormat="1">
@@ -35970,7 +35993,7 @@
     </row>
     <row r="73" spans="2:2" s="3" customFormat="1">
       <c r="B73" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="2:2" s="3" customFormat="1">
@@ -35980,17 +36003,17 @@
     </row>
     <row r="75" spans="2:2" s="3" customFormat="1">
       <c r="B75" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="2:2" s="3" customFormat="1">
       <c r="B78" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="2:2" s="3" customFormat="1">
@@ -36006,7 +36029,7 @@
     <row r="81" spans="2:2" s="3" customFormat="1"/>
     <row r="82" spans="2:2" s="3" customFormat="1">
       <c r="B82" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="2:2" s="3" customFormat="1">
@@ -36017,7 +36040,7 @@
     <row r="84" spans="2:2" s="3" customFormat="1"/>
     <row r="85" spans="2:2" s="3" customFormat="1">
       <c r="B85" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="2:2" s="3" customFormat="1">
@@ -36027,17 +36050,17 @@
     </row>
     <row r="87" spans="2:2" s="3" customFormat="1">
       <c r="B87" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="2:2" s="3" customFormat="1">
       <c r="B90" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="2:2" s="3" customFormat="1">
@@ -36052,7 +36075,7 @@
     </row>
     <row r="93" spans="2:2" s="3" customFormat="1">
       <c r="B93" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="2:2" s="3" customFormat="1">
@@ -36062,7 +36085,7 @@
     </row>
     <row r="95" spans="2:2" s="3" customFormat="1">
       <c r="B95" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="2:2" s="3" customFormat="1">
@@ -36077,12 +36100,12 @@
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="2:2" s="3" customFormat="1">
       <c r="B100" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="2:2" s="3" customFormat="1">
@@ -36097,7 +36120,7 @@
     </row>
     <row r="103" spans="2:2" s="3" customFormat="1">
       <c r="B103" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="2:2" s="3" customFormat="1">
@@ -36108,7 +36131,7 @@
     <row r="105" spans="2:2" s="3" customFormat="1"/>
     <row r="106" spans="2:2" s="3" customFormat="1">
       <c r="B106" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="2:2" s="3" customFormat="1">
@@ -36118,17 +36141,17 @@
     </row>
     <row r="108" spans="2:2" s="3" customFormat="1">
       <c r="B108" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="2:2" s="3" customFormat="1">
       <c r="B111" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="2:2" s="3" customFormat="1">
@@ -36138,12 +36161,12 @@
     </row>
     <row r="113" spans="2:2" s="3" customFormat="1">
       <c r="B113" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="2:2" s="3" customFormat="1">
       <c r="B114" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="2:2" s="3" customFormat="1">
@@ -36153,7 +36176,7 @@
     </row>
     <row r="116" spans="2:2" s="3" customFormat="1">
       <c r="B116" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="2:2" s="3" customFormat="1">
@@ -36163,27 +36186,27 @@
     </row>
     <row r="118" spans="2:2" s="3" customFormat="1">
       <c r="B118" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="2:2" s="3" customFormat="1">
       <c r="B121" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="2:2" s="3" customFormat="1">
       <c r="B122" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="2:2" s="3" customFormat="1">
       <c r="B123" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="2:2" s="3" customFormat="1">
@@ -36193,17 +36216,17 @@
     </row>
     <row r="125" spans="2:2" s="3" customFormat="1">
       <c r="B125" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="126" spans="2:2" s="3" customFormat="1">
       <c r="B126" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="2:2" s="3" customFormat="1">
       <c r="B127" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="2:2" s="3" customFormat="1">
@@ -36213,7 +36236,7 @@
     </row>
     <row r="129" spans="2:3" s="3" customFormat="1">
       <c r="B129" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="2:3" s="3" customFormat="1">
@@ -36238,46 +36261,46 @@
     </row>
     <row r="135" spans="2:3">
       <c r="B135" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="2:3" s="3" customFormat="1">
       <c r="B136" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="2:3" s="3" customFormat="1">
       <c r="B137" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138" spans="2:3" s="3" customFormat="1">
       <c r="B138" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="139" spans="2:3" s="3" customFormat="1"/>
     <row r="140" spans="2:3" s="3" customFormat="1">
       <c r="B140" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="2:3" s="3" customFormat="1">
       <c r="B141" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="2:3" s="3" customFormat="1">
       <c r="B142" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="2:3" s="3" customFormat="1">
       <c r="B144" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="2:2" s="3" customFormat="1">
@@ -36287,22 +36310,22 @@
     </row>
     <row r="146" spans="2:2" s="3" customFormat="1">
       <c r="B146" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="2:2" s="3" customFormat="1">
       <c r="B147" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="148" spans="2:2" s="3" customFormat="1">
       <c r="B148" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="149" spans="2:2" s="3" customFormat="1">
       <c r="B149" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="2:2" s="3" customFormat="1">
@@ -36312,28 +36335,28 @@
     </row>
     <row r="151" spans="2:2" s="3" customFormat="1">
       <c r="B151" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154" spans="2:2" s="3" customFormat="1">
       <c r="B154" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="2:2" s="3" customFormat="1">
       <c r="B155" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="2:2" s="3" customFormat="1"/>
     <row r="157" spans="2:2" s="3" customFormat="1">
       <c r="B157" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="2:2" s="3" customFormat="1">
@@ -36343,7 +36366,7 @@
     </row>
     <row r="159" spans="2:2" s="3" customFormat="1">
       <c r="B159" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
